--- a/dokumentation/Tidapp.xlsx
+++ b/dokumentation/Tidapp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\~60920\tidsapp_api\dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C171CA-BF0D-4B01-8F0D-709CFF555783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AAD848-234A-44AA-B46F-CD1848B1B99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2112" yWindow="1332" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planering" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>Uppgift</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Hämta uppgifter mellan datum</t>
   </si>
 </sst>
 </file>
@@ -1798,7 +1801,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1969,6 +1972,9 @@
       <c r="B15">
         <v>2.5</v>
       </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">

--- a/dokumentation/Tidapp.xlsx
+++ b/dokumentation/Tidapp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\~60920\tidsapp_api\dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AAD848-234A-44AA-B46F-CD1848B1B99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8554AC00-A17A-4117-83C8-A244DEC08846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2112" yWindow="1332" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2112" yWindow="1332" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planering" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>Uppgift</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Hämta uppgifter mellan datum</t>
+  </si>
+  <si>
+    <t>Spara ny post</t>
   </si>
 </sst>
 </file>
@@ -1798,10 +1801,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D0B4C1-C5BB-4BD1-B88B-FFEA68A00A23}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1970,19 +1973,30 @@
         <v>45315</v>
       </c>
       <c r="B15">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="44">
+        <v>45315</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B16">
-        <f>SUM(B2:B15)</f>
-        <v>32</v>
+      <c r="B17">
+        <f>SUM(B2:B16)</f>
+        <v>33.5</v>
       </c>
     </row>
   </sheetData>

--- a/dokumentation/Tidapp.xlsx
+++ b/dokumentation/Tidapp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\~60920\tidsapp_api\dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8554AC00-A17A-4117-83C8-A244DEC08846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48197EA-815C-48C7-939F-9B79CBED5053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2112" yWindow="1332" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planering" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>Uppgift</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>Spara ny post</t>
+  </si>
+  <si>
+    <t>Spara ny post(tester)</t>
+  </si>
+  <si>
+    <t>Kontrollera indata</t>
   </si>
 </sst>
 </file>
@@ -1801,10 +1807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D0B4C1-C5BB-4BD1-B88B-FFEA68A00A23}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1990,13 +1996,46 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="44">
+        <v>45317</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="44">
+        <v>45317</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="44">
+        <v>45317</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B17">
-        <f>SUM(B2:B16)</f>
-        <v>33.5</v>
+      <c r="B20">
+        <f>SUM(B2:B17)</f>
+        <v>34.5</v>
       </c>
     </row>
   </sheetData>

--- a/dokumentation/Tidapp.xlsx
+++ b/dokumentation/Tidapp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\~60920\tidsapp_api\dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48197EA-815C-48C7-939F-9B79CBED5053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A172DF5-16F8-4941-A159-BF6CFDAD7E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>Uppgift</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>Kontrollera indata</t>
+  </si>
+  <si>
+    <t>Uppdatera uppgift</t>
   </si>
 </sst>
 </file>
@@ -1807,10 +1810,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D0B4C1-C5BB-4BD1-B88B-FFEA68A00A23}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2030,10 +2033,21 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="44">
+        <v>45320</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <f>SUM(B2:B17)</f>
         <v>34.5</v>
       </c>

--- a/dokumentation/Tidapp.xlsx
+++ b/dokumentation/Tidapp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\~60920\tidsapp_api\dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A172DF5-16F8-4941-A159-BF6CFDAD7E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C03357-BD83-4842-A1BF-1BEB5EC2AF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>Uppgift</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>Uppdatera uppgift</t>
+  </si>
+  <si>
+    <t>Sammanställning</t>
   </si>
 </sst>
 </file>
@@ -1810,10 +1813,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D0B4C1-C5BB-4BD1-B88B-FFEA68A00A23}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2044,10 +2047,21 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="44">
+        <v>45322</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>30</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <f>SUM(B2:B17)</f>
         <v>34.5</v>
       </c>
